--- a/Table/client/lua/exe/temp/T 天机印开孔表.xlsx
+++ b/Table/client/lua/exe/temp/T 天机印开孔表.xlsx
@@ -5,19 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ol_and_v13\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -79,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,86 +141,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>乾</t>
+  </si>
+  <si>
+    <t>坎</t>
+  </si>
+  <si>
+    <t>艮</t>
+  </si>
+  <si>
+    <t>震</t>
+  </si>
+  <si>
+    <t>巽</t>
+  </si>
+  <si>
+    <t>坤</t>
+  </si>
+  <si>
+    <t>初始强化ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12001</t>
+  </si>
+  <si>
+    <t>开启道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700007,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兩儀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾</t>
-  </si>
-  <si>
-    <t>坎</t>
-  </si>
-  <si>
-    <t>艮</t>
-  </si>
-  <si>
-    <t>震</t>
-  </si>
-  <si>
-    <t>巽</t>
-  </si>
-  <si>
-    <t>离</t>
-  </si>
-  <si>
-    <t>坤</t>
-  </si>
-  <si>
-    <t>兑</t>
-  </si>
-  <si>
-    <t>初始强化ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12001</t>
-  </si>
-  <si>
-    <t>开启道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700007,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>양의</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>건</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>감</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>간</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>진</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>손</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>이</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>곤</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>태</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>양의</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +392,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -591,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -602,13 +745,13 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="6" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="4" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -619,19 +762,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1010</v>
       </c>
@@ -642,15 +786,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="4">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1011</v>
       </c>
@@ -661,15 +808,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="4">
+      <c r="G3" s="6"/>
+      <c r="H3" s="4">
         <v>11001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1012</v>
       </c>
@@ -680,15 +830,18 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1013</v>
       </c>
@@ -699,15 +852,18 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="4">
+      <c r="G5" s="6"/>
+      <c r="H5" s="4">
         <v>13001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1014</v>
       </c>
@@ -718,16 +874,19 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="4">
+      <c r="G6" s="6"/>
+      <c r="H6" s="4">
         <v>14001</v>
       </c>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1015</v>
       </c>
@@ -738,15 +897,18 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="4">
+      <c r="G7" s="6"/>
+      <c r="H7" s="4">
         <v>15001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1016</v>
       </c>
@@ -757,15 +919,18 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="4">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4">
         <v>16001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1017</v>
       </c>
@@ -776,15 +941,18 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="4">
+      <c r="G9" s="6"/>
+      <c r="H9" s="4">
         <v>17001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1018</v>
       </c>
@@ -795,15 +963,18 @@
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="4">
+      <c r="G10" s="6"/>
+      <c r="H10" s="4">
         <v>18001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1020</v>
       </c>
@@ -814,17 +985,20 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6">
         <v>70324</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4">
+      <c r="G11" s="6"/>
+      <c r="H11" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1021</v>
       </c>
@@ -835,19 +1009,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
         <v>70324</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4">
         <v>11001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1022</v>
       </c>
@@ -858,19 +1035,22 @@
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
         <v>70324</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1023</v>
       </c>
@@ -881,19 +1061,22 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6">
+        <v>28</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6">
         <v>70324</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="4">
         <v>13001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1024</v>
       </c>
@@ -904,19 +1087,22 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="6">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6">
         <v>70324</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4">
         <v>14001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1025</v>
       </c>
@@ -927,19 +1113,22 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6">
         <v>70324</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="G16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="4">
         <v>15001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1026</v>
       </c>
@@ -950,19 +1139,22 @@
         <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6">
         <v>70324</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4">
         <v>16001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1027</v>
       </c>
@@ -973,19 +1165,22 @@
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
         <v>70324</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4">
         <v>17001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1028</v>
       </c>
@@ -996,15 +1191,18 @@
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="6">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6">
         <v>70324</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4">
         <v>18001</v>
       </c>
     </row>

--- a/Table/client/lua/exe/temp/T 天机印开孔表.xlsx
+++ b/Table/client/lua/exe/temp/T 天机印开孔表.xlsx
@@ -5,25 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ol_and_v13\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -85,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +135,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>乾</t>
   </si>
   <si>
@@ -156,9 +158,15 @@
     <t>巽</t>
   </si>
   <si>
+    <t>离</t>
+  </si>
+  <si>
     <t>坤</t>
   </si>
   <si>
+    <t>兑</t>
+  </si>
+  <si>
     <t>初始强化ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,151 +208,13 @@
   <si>
     <t>700007,150</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兩儀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>離</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>양의</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>건</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>감</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>간</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>진</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>손</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>이</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>곤</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>태</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>양의</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,19 +262,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -734,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -745,13 +602,13 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9" style="5"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -762,20 +619,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1010</v>
       </c>
@@ -786,18 +642,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>1011</v>
       </c>
@@ -808,18 +661,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
         <v>11001</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1012</v>
       </c>
@@ -830,18 +680,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1013</v>
       </c>
@@ -852,18 +699,15 @@
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>13001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>1014</v>
       </c>
@@ -874,19 +718,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <v>14001</v>
       </c>
-      <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1015</v>
       </c>
@@ -897,18 +738,15 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>15001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1016</v>
       </c>
@@ -919,18 +757,15 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>16001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>1017</v>
       </c>
@@ -941,18 +776,15 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>17001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>1018</v>
       </c>
@@ -963,18 +795,15 @@
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>18001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1020</v>
       </c>
@@ -985,20 +814,17 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
         <v>70324</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4">
+      <c r="F11" s="6"/>
+      <c r="G11" s="4">
         <v>10001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>1021</v>
       </c>
@@ -1009,22 +835,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
         <v>70324</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4">
         <v>11001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>1022</v>
       </c>
@@ -1035,22 +858,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
         <v>70324</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>1023</v>
       </c>
@@ -1061,22 +881,19 @@
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
         <v>70324</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="4">
         <v>13001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>1024</v>
       </c>
@@ -1087,22 +904,19 @@
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6">
         <v>70324</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="F15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="4">
         <v>14001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>1025</v>
       </c>
@@ -1113,22 +927,19 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
         <v>70324</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="4">
         <v>15001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>1026</v>
       </c>
@@ -1139,22 +950,19 @@
         <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>70324</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="6">
-        <v>70324</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4">
         <v>16001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>1027</v>
       </c>
@@ -1165,22 +973,19 @@
         <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6">
         <v>70324</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="F18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4">
         <v>17001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>1028</v>
       </c>
@@ -1191,18 +996,15 @@
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6">
         <v>70324</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="4">
         <v>18001</v>
       </c>
     </row>
